--- a/data/dsci_data.xlsx
+++ b/data/dsci_data.xlsx
@@ -626,7 +626,7 @@
   </si>
   <si>
     <t>&lt;h3&gt;Course Information&lt;/h3&gt;
-&lt;p&gt;The course map presents all STAT, MATH, and DSCI courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
+&lt;p&gt;The course map presents all DSCI, STAT, MATH, and CPSC courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
 &lt;p&gt;The course map was created by &lt;a href='https://patrickwalls.github.io/'&gt;Patrick Walls&lt;/a&gt; with contributions from &lt;a href='https://github.com/zzzzzyzzzzz'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
 &lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
@@ -677,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -703,6 +703,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -744,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -767,6 +772,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -2673,11 +2681,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
+      <c r="B2" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.5</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -2687,11 +2695,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.0</v>
+      <c r="B3" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4.5</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -2701,10 +2709,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -2715,10 +2723,10 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="C5" s="10">
         <v>6.0</v>
       </c>
       <c r="D5" s="2">
@@ -2729,10 +2737,10 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="10">
         <v>9.0</v>
       </c>
       <c r="D6" s="2">
@@ -2743,10 +2751,10 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="C7" s="10">
         <v>6.0</v>
       </c>
       <c r="D7" s="2">
@@ -2757,10 +2765,10 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="C8" s="10">
         <v>9.0</v>
       </c>
       <c r="D8" s="2">
@@ -2771,10 +2779,10 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="10">
         <v>12.0</v>
       </c>
       <c r="D9" s="2">
@@ -2785,10 +2793,10 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>0.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="10">
         <v>18.0</v>
       </c>
       <c r="D10" s="2">
@@ -2799,10 +2807,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -2813,10 +2821,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="C12" s="10">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -2827,10 +2835,10 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C13" s="10">
         <v>6.0</v>
       </c>
       <c r="D13" s="2">
@@ -2841,10 +2849,10 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="C14" s="10">
         <v>12.0</v>
       </c>
       <c r="D14" s="2">
@@ -2855,10 +2863,10 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="C15" s="10">
         <v>9.0</v>
       </c>
       <c r="D15" s="2">
@@ -2869,10 +2877,10 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>0.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10">
         <v>9.0</v>
       </c>
       <c r="D16" s="2">
@@ -2883,11 +2891,11 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.0</v>
+      <c r="B17" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4.5</v>
       </c>
       <c r="D17" s="2">
         <v>1.0</v>
@@ -2897,10 +2905,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>0.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="10">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -2911,10 +2919,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="10">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -2925,10 +2933,10 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="C20" s="10">
         <v>6.0</v>
       </c>
       <c r="D20" s="2">
@@ -2939,10 +2947,10 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="C21" s="10">
         <v>9.0</v>
       </c>
       <c r="D21" s="2">
@@ -2953,10 +2961,10 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="C22" s="10">
         <v>15.0</v>
       </c>
       <c r="D22" s="2">
@@ -2967,10 +2975,10 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="C23" s="10">
         <v>12.0</v>
       </c>
       <c r="D23" s="2">
@@ -2981,10 +2989,10 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>0.0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="10">
         <v>21.0</v>
       </c>
       <c r="D24" s="2">
@@ -2995,10 +3003,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="10">
+        <v>-4.0</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -3009,10 +3017,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="C26" s="10">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -3023,10 +3031,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="10">
+        <v>-2.0</v>
+      </c>
+      <c r="C27" s="10">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -3037,10 +3045,10 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3">
-        <v>-5.0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="C28" s="10">
         <v>6.0</v>
       </c>
       <c r="D28" s="2">
@@ -3051,10 +3059,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3">
-        <v>-6.0</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="C29" s="10">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -3065,10 +3073,10 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="C30" s="10">
         <v>6.0</v>
       </c>
       <c r="D30" s="2">
@@ -3079,10 +3087,10 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="C31" s="10">
         <v>12.0</v>
       </c>
       <c r="D31" s="2">
@@ -3093,10 +3101,10 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="C32" s="10">
         <v>15.0</v>
       </c>
       <c r="D32" s="2">
@@ -3107,10 +3115,10 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="10">
         <v>15.0</v>
       </c>
       <c r="D33" s="2">
@@ -3118,44 +3126,44 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -4147,25 +4155,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4178,23 +4186,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E2" s="11">
+        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="E2" s="10">
-        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4216,23 +4224,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4254,23 +4262,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F4" s="10">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4292,25 +4300,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="11">
+        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H5" s="2">
         <f>course_requisites!D:D</f>
@@ -4330,23 +4338,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="11">
+        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="11">
+        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="10">
-        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="10">
-        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4368,25 +4376,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H7" s="2">
         <f>course_requisites!D:D</f>
@@ -4406,25 +4414,25 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>course_requisites!D:D</f>
@@ -4444,23 +4452,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="10">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4482,25 +4490,25 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E10" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H10" s="2">
         <f>course_requisites!D:D</f>
@@ -4520,25 +4528,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <f>course_requisites!D:D</f>
@@ -4558,25 +4566,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="10">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G12" s="11">
+        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="10">
-        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H12" s="2">
         <f>course_requisites!D:D</f>
@@ -4596,25 +4604,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2">
         <f>course_requisites!D:D</f>
@@ -4634,25 +4642,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H14" s="2">
         <f>course_requisites!D:D</f>
@@ -4672,25 +4680,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H15" s="2">
         <f>course_requisites!D:D</f>
@@ -4710,25 +4718,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F16" s="10">
+        <v>21</v>
+      </c>
+      <c r="F16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <f>course_requisites!D:D</f>
@@ -4748,25 +4756,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="F17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
-      </c>
-      <c r="F17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
-        <v>15</v>
       </c>
       <c r="H17" s="2">
         <f>course_requisites!D:D</f>
@@ -4786,25 +4794,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F18" s="10">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
         <f>course_requisites!D:D</f>
@@ -4824,25 +4832,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F19" s="10">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <f>course_requisites!D:D</f>
@@ -4862,25 +4870,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F20" s="10">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G20" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
         <f>course_requisites!D:D</f>
@@ -4900,23 +4908,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="E21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4938,23 +4946,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="E22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="10">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G22" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4976,23 +4984,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F23" s="10">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5014,25 +5022,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
+        <v>-3.3</v>
+      </c>
+      <c r="G24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H24" s="2">
         <f>course_requisites!D:D</f>
@@ -5052,25 +5060,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F25" s="10">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <f>course_requisites!D:D</f>
@@ -5090,23 +5098,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F26" s="10">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5128,25 +5136,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="11" t="str">
+      <c r="C27" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F27" s="10">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <f>course_requisites!D:D</f>
@@ -5166,25 +5174,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="11" t="str">
+      <c r="C28" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H28" s="2">
         <f>course_requisites!D:D</f>
@@ -5204,23 +5212,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
+        <v>-2.4</v>
+      </c>
+      <c r="E29" s="11">
+        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="11">
+        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="10">
-        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="10">
-        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="G29" s="11">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5242,23 +5250,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="11" t="str">
+      <c r="C30" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5280,23 +5288,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="11" t="str">
+      <c r="C31" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E31" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F31" s="10">
+        <v>9</v>
+      </c>
+      <c r="F31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5318,23 +5326,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="11" t="str">
+      <c r="C32" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E32" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5356,23 +5364,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C33" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E33" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G33" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5394,23 +5402,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="11" t="str">
+      <c r="C34" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E34" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G34" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5432,25 +5440,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="11" t="str">
+      <c r="C35" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E35" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H35" s="2">
         <f>course_requisites!D:D</f>
@@ -5470,25 +5478,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="11" t="str">
+      <c r="C36" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E36" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
+        <v>-7.1</v>
+      </c>
+      <c r="G36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H36" s="2">
         <f>course_requisites!D:D</f>
@@ -5508,23 +5516,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="11" t="str">
+      <c r="C37" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E37" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F37" s="10">
+        <v>12</v>
+      </c>
+      <c r="F37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G37" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5546,23 +5554,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F38" s="10">
+        <v>18</v>
+      </c>
+      <c r="F38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5584,23 +5592,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F39" s="10">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G39" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5622,25 +5630,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G40" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
         <f>course_requisites!D:D</f>
@@ -5660,25 +5668,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H41" s="2">
         <f>course_requisites!D:D</f>
@@ -5698,23 +5706,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F42" s="10">
+        <v>18</v>
+      </c>
+      <c r="F42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G42" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5736,23 +5744,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F43" s="10">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G43" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5774,25 +5782,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E44" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="10">
+        <v>15</v>
+      </c>
+      <c r="F44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <f>course_requisites!D:D</f>
@@ -5812,23 +5820,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C45" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E45" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F45" s="10">
+        <v>15</v>
+      </c>
+      <c r="F45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G45" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5850,25 +5858,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C46" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E46" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F46" s="10">
+        <v>15</v>
+      </c>
+      <c r="F46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G46" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" s="2">
         <f>course_requisites!D:D</f>
@@ -5888,25 +5896,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="11" t="str">
+      <c r="C47" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E47" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="G47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H47" s="2">
         <f>course_requisites!D:D</f>
@@ -5926,25 +5934,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F48" s="10">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G48" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="G48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2">
         <f>course_requisites!D:D</f>
@@ -5964,25 +5972,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F49" s="10">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2">
         <f>course_requisites!D:D</f>
@@ -6002,25 +6010,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F50" s="10">
+        <v>24</v>
+      </c>
+      <c r="F50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H50" s="2">
         <f>course_requisites!D:D</f>
@@ -6040,25 +6048,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F51" s="10">
+        <v>24</v>
+      </c>
+      <c r="F51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2">
         <f>course_requisites!D:D</f>
@@ -6078,23 +6086,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="11" t="str">
+      <c r="C52" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E52" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="E52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G52" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6116,23 +6124,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="11" t="str">
+      <c r="C53" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E53" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F53" s="10">
+        <v>9</v>
+      </c>
+      <c r="F53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G53" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6154,23 +6162,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="11" t="str">
+      <c r="C54" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E54" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F54" s="10">
+        <v>9</v>
+      </c>
+      <c r="F54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G54" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6192,23 +6200,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="11" t="str">
+      <c r="C55" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E55" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G55" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6230,23 +6238,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="11" t="str">
+      <c r="C56" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E56" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G56" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6268,23 +6276,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="11" t="str">
+      <c r="C57" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E57" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F57" s="10">
+        <v>9</v>
+      </c>
+      <c r="F57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G57" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6306,23 +6314,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="11" t="str">
+      <c r="C58" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E58" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F58" s="10">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G58" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6344,23 +6352,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="11" t="str">
+      <c r="C59" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E59" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F59" s="10">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G59" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6382,25 +6390,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="11" t="str">
+      <c r="C60" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E60" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F60" s="10">
+        <v>18</v>
+      </c>
+      <c r="F60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G60" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2">
         <f>course_requisites!D:D</f>
@@ -6420,25 +6428,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="11" t="str">
+      <c r="C61" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E61" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F61" s="10">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G61" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H61" s="2">
         <f>course_requisites!D:D</f>
@@ -6458,25 +6466,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="11" t="str">
+      <c r="C62" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E62" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H62" s="2">
         <f>course_requisites!D:D</f>
@@ -6496,23 +6504,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="11" t="str">
+      <c r="C63" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E63" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F63" s="10">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G63" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6534,23 +6542,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="11" t="str">
+      <c r="C64" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
+        <v>-4.1</v>
+      </c>
+      <c r="E64" s="11">
+        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F64" s="11">
+        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E64" s="10">
-        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F64" s="10">
-        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="G64" s="11">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6572,25 +6580,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="11" t="str">
+      <c r="C65" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
+        <v>-5.6</v>
+      </c>
+      <c r="G65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H65" s="2">
         <f>course_requisites!D:D</f>
@@ -6610,25 +6618,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="11" t="str">
+      <c r="C66" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F66" s="10">
+        <v>18</v>
+      </c>
+      <c r="F66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G66" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H66" s="2">
         <f>course_requisites!D:D</f>
@@ -6648,25 +6656,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="11" t="str">
+      <c r="C67" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F67" s="10">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G67" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H67" s="2">
         <f>course_requisites!D:D</f>
@@ -6686,25 +6694,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="11" t="str">
+      <c r="C68" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F68" s="10">
+        <v>18</v>
+      </c>
+      <c r="F68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G68" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2">
         <f>course_requisites!D:D</f>
@@ -6724,25 +6732,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="11" t="str">
+      <c r="C69" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F69" s="10">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G69" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2">
         <f>course_requisites!D:D</f>
@@ -6762,25 +6770,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="11" t="str">
+      <c r="C70" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F70" s="10">
+        <v>18</v>
+      </c>
+      <c r="F70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G70" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H70" s="2">
         <f>course_requisites!D:D</f>
@@ -6800,25 +6808,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="11" t="str">
+      <c r="C71" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E71" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F71" s="10">
+        <v>15</v>
+      </c>
+      <c r="F71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G71" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2">
         <f>course_requisites!D:D</f>
@@ -6838,25 +6846,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="11" t="str">
+      <c r="C72" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E72" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F72" s="10">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G72" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="G72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
         <f>course_requisites!D:D</f>
@@ -6876,25 +6884,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="11" t="str">
+      <c r="C73" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E73" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F73" s="10">
+        <v>15</v>
+      </c>
+      <c r="F73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73" s="2">
         <f>course_requisites!D:D</f>
@@ -6914,25 +6922,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="11" t="str">
+      <c r="C74" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E74" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F74" s="10">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G74" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H74" s="2">
         <f>course_requisites!D:D</f>
@@ -6952,23 +6960,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="11" t="str">
+      <c r="C75" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F75" s="10">
+        <v>12</v>
+      </c>
+      <c r="F75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G75" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6990,25 +6998,25 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="11" t="str">
+      <c r="C76" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H76" s="2">
         <f>course_requisites!D:D</f>
@@ -8137,11 +8145,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
+      <c r="B2" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.5</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -8151,11 +8159,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.0</v>
+      <c r="B3" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4.5</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -8165,10 +8173,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -8179,10 +8187,10 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="C5" s="10">
         <v>6.0</v>
       </c>
       <c r="D5" s="2">
@@ -8193,10 +8201,10 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="10">
         <v>9.0</v>
       </c>
       <c r="D6" s="2">
@@ -8207,10 +8215,10 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="C7" s="10">
         <v>6.0</v>
       </c>
       <c r="D7" s="2">
@@ -8221,10 +8229,10 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="C8" s="10">
         <v>9.0</v>
       </c>
       <c r="D8" s="2">
@@ -8235,10 +8243,10 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="10">
         <v>12.0</v>
       </c>
       <c r="D9" s="2">
@@ -8249,10 +8257,10 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>0.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="10">
         <v>18.0</v>
       </c>
       <c r="D10" s="2">
@@ -8263,10 +8271,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -8277,10 +8285,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="C12" s="10">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -8291,10 +8299,10 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C13" s="10">
         <v>6.0</v>
       </c>
       <c r="D13" s="2">
@@ -8305,10 +8313,10 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="C14" s="10">
         <v>12.0</v>
       </c>
       <c r="D14" s="2">
@@ -8319,10 +8327,10 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="C15" s="10">
         <v>9.0</v>
       </c>
       <c r="D15" s="2">
@@ -8333,10 +8341,10 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>0.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10">
         <v>9.0</v>
       </c>
       <c r="D16" s="2">
@@ -8347,11 +8355,11 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.0</v>
+      <c r="B17" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4.5</v>
       </c>
       <c r="D17" s="2">
         <v>0.0</v>
@@ -8361,10 +8369,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>0.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="10">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -8375,10 +8383,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="10">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -8389,10 +8397,10 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="C20" s="10">
         <v>6.0</v>
       </c>
       <c r="D20" s="2">
@@ -8403,10 +8411,10 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="C21" s="10">
         <v>9.0</v>
       </c>
       <c r="D21" s="2">
@@ -8417,10 +8425,10 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="C22" s="10">
         <v>15.0</v>
       </c>
       <c r="D22" s="2">
@@ -8431,10 +8439,10 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="C23" s="10">
         <v>12.0</v>
       </c>
       <c r="D23" s="2">
@@ -8445,10 +8453,10 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>0.0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="10">
         <v>21.0</v>
       </c>
       <c r="D24" s="2">
@@ -8459,10 +8467,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="10">
+        <v>-4.0</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -8473,10 +8481,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="C26" s="10">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -8487,10 +8495,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="10">
+        <v>-2.0</v>
+      </c>
+      <c r="C27" s="10">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -8501,10 +8509,10 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3">
-        <v>-5.0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="C28" s="10">
         <v>6.0</v>
       </c>
       <c r="D28" s="2">
@@ -8515,10 +8523,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3">
-        <v>-6.0</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="C29" s="10">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -8529,10 +8537,10 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="C30" s="10">
         <v>6.0</v>
       </c>
       <c r="D30" s="2">
@@ -8543,10 +8551,10 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="C31" s="10">
         <v>12.0</v>
       </c>
       <c r="D31" s="2">
@@ -8557,10 +8565,10 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="C32" s="10">
         <v>15.0</v>
       </c>
       <c r="D32" s="2">
@@ -8571,10 +8579,10 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="10">
         <v>15.0</v>
       </c>
       <c r="D33" s="2">
@@ -8582,44 +8590,44 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -9611,25 +9619,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9642,23 +9650,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E2" s="11">
+        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="E2" s="10">
-        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9680,23 +9688,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9718,23 +9726,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F4" s="10">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9756,25 +9764,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="11">
+        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H5" s="2">
         <f>course_requisites!D:D</f>
@@ -9794,23 +9802,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="11">
+        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="11">
+        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="10">
-        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="10">
-        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9832,25 +9840,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H7" s="2">
         <f>course_requisites!D:D</f>
@@ -9870,25 +9878,25 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>course_requisites!D:D</f>
@@ -9908,23 +9916,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="10">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9946,25 +9954,25 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E10" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H10" s="2">
         <f>course_requisites!D:D</f>
@@ -9984,25 +9992,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <f>course_requisites!D:D</f>
@@ -10022,25 +10030,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="10">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G12" s="11">
+        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="10">
-        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H12" s="2">
         <f>course_requisites!D:D</f>
@@ -10060,25 +10068,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2">
         <f>course_requisites!D:D</f>
@@ -10098,25 +10106,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H14" s="2">
         <f>course_requisites!D:D</f>
@@ -10136,25 +10144,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H15" s="2">
         <f>course_requisites!D:D</f>
@@ -10174,25 +10182,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F16" s="10">
+        <v>21</v>
+      </c>
+      <c r="F16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <f>course_requisites!D:D</f>
@@ -10212,25 +10220,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="F17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
-      </c>
-      <c r="F17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
-        <v>15</v>
       </c>
       <c r="H17" s="2">
         <f>course_requisites!D:D</f>
@@ -10250,25 +10258,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F18" s="10">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
         <f>course_requisites!D:D</f>
@@ -10288,25 +10296,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F19" s="10">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <f>course_requisites!D:D</f>
@@ -10326,25 +10334,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F20" s="10">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G20" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
         <f>course_requisites!D:D</f>
@@ -10364,23 +10372,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="E21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10402,23 +10410,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="E22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="10">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G22" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10440,23 +10448,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F23" s="10">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10478,25 +10486,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
+        <v>-3.3</v>
+      </c>
+      <c r="G24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H24" s="2">
         <f>course_requisites!D:D</f>
@@ -10516,25 +10524,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F25" s="10">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <f>course_requisites!D:D</f>
@@ -10554,23 +10562,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F26" s="10">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10592,25 +10600,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="11" t="str">
+      <c r="C27" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F27" s="10">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <f>course_requisites!D:D</f>
@@ -10630,25 +10638,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="11" t="str">
+      <c r="C28" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H28" s="2">
         <f>course_requisites!D:D</f>
@@ -10668,23 +10676,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
+        <v>-2.4</v>
+      </c>
+      <c r="E29" s="11">
+        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="11">
+        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="10">
-        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="10">
-        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="G29" s="11">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10706,23 +10714,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="11" t="str">
+      <c r="C30" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10744,23 +10752,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="11" t="str">
+      <c r="C31" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E31" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F31" s="10">
+        <v>9</v>
+      </c>
+      <c r="F31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10782,23 +10790,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="11" t="str">
+      <c r="C32" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E32" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10820,23 +10828,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C33" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E33" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G33" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10858,23 +10866,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="11" t="str">
+      <c r="C34" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E34" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G34" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10896,25 +10904,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="11" t="str">
+      <c r="C35" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E35" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H35" s="2">
         <f>course_requisites!D:D</f>
@@ -10934,25 +10942,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="11" t="str">
+      <c r="C36" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E36" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
+        <v>-7.1</v>
+      </c>
+      <c r="G36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H36" s="2">
         <f>course_requisites!D:D</f>
@@ -10972,23 +10980,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="11" t="str">
+      <c r="C37" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E37" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F37" s="10">
+        <v>12</v>
+      </c>
+      <c r="F37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G37" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11010,23 +11018,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F38" s="10">
+        <v>18</v>
+      </c>
+      <c r="F38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11048,23 +11056,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F39" s="10">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G39" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11086,25 +11094,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G40" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
         <f>course_requisites!D:D</f>
@@ -11124,25 +11132,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H41" s="2">
         <f>course_requisites!D:D</f>
@@ -11162,23 +11170,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F42" s="10">
+        <v>18</v>
+      </c>
+      <c r="F42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G42" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11200,23 +11208,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F43" s="10">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G43" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11238,25 +11246,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E44" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="10">
+        <v>15</v>
+      </c>
+      <c r="F44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <f>course_requisites!D:D</f>
@@ -11276,23 +11284,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C45" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E45" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F45" s="10">
+        <v>15</v>
+      </c>
+      <c r="F45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G45" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11314,25 +11322,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C46" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E46" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F46" s="10">
+        <v>15</v>
+      </c>
+      <c r="F46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G46" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" s="2">
         <f>course_requisites!D:D</f>
@@ -11352,25 +11360,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="11" t="str">
+      <c r="C47" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E47" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="G47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H47" s="2">
         <f>course_requisites!D:D</f>
@@ -11390,25 +11398,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F48" s="10">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G48" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="G48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2">
         <f>course_requisites!D:D</f>
@@ -11428,25 +11436,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F49" s="10">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2">
         <f>course_requisites!D:D</f>
@@ -11466,25 +11474,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F50" s="10">
+        <v>24</v>
+      </c>
+      <c r="F50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H50" s="2">
         <f>course_requisites!D:D</f>
@@ -11504,25 +11512,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F51" s="10">
+        <v>24</v>
+      </c>
+      <c r="F51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2">
         <f>course_requisites!D:D</f>
@@ -11542,23 +11550,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="11" t="str">
+      <c r="C52" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E52" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="E52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G52" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11580,23 +11588,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="11" t="str">
+      <c r="C53" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E53" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F53" s="10">
+        <v>9</v>
+      </c>
+      <c r="F53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G53" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11618,23 +11626,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="11" t="str">
+      <c r="C54" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E54" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F54" s="10">
+        <v>9</v>
+      </c>
+      <c r="F54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G54" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11656,23 +11664,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="11" t="str">
+      <c r="C55" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E55" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G55" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11694,23 +11702,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="11" t="str">
+      <c r="C56" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E56" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G56" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11732,23 +11740,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="11" t="str">
+      <c r="C57" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E57" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F57" s="10">
+        <v>9</v>
+      </c>
+      <c r="F57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G57" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11770,23 +11778,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="11" t="str">
+      <c r="C58" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E58" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F58" s="10">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G58" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11808,23 +11816,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="11" t="str">
+      <c r="C59" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E59" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F59" s="10">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G59" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11846,25 +11854,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="11" t="str">
+      <c r="C60" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E60" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F60" s="10">
+        <v>18</v>
+      </c>
+      <c r="F60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G60" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2">
         <f>course_requisites!D:D</f>
@@ -11884,25 +11892,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="11" t="str">
+      <c r="C61" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E61" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F61" s="10">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G61" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H61" s="2">
         <f>course_requisites!D:D</f>
@@ -11922,25 +11930,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="11" t="str">
+      <c r="C62" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E62" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H62" s="2">
         <f>course_requisites!D:D</f>
@@ -11960,23 +11968,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="11" t="str">
+      <c r="C63" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E63" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F63" s="10">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G63" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11998,23 +12006,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="11" t="str">
+      <c r="C64" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
+        <v>-4.1</v>
+      </c>
+      <c r="E64" s="11">
+        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F64" s="11">
+        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E64" s="10">
-        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F64" s="10">
-        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="G64" s="11">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -12036,25 +12044,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="11" t="str">
+      <c r="C65" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
+        <v>-5.6</v>
+      </c>
+      <c r="G65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H65" s="2">
         <f>course_requisites!D:D</f>
@@ -12074,25 +12082,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="11" t="str">
+      <c r="C66" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F66" s="10">
+        <v>18</v>
+      </c>
+      <c r="F66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G66" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H66" s="2">
         <f>course_requisites!D:D</f>
@@ -12112,25 +12120,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="11" t="str">
+      <c r="C67" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F67" s="10">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G67" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H67" s="2">
         <f>course_requisites!D:D</f>
@@ -12150,25 +12158,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="11" t="str">
+      <c r="C68" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F68" s="10">
+        <v>18</v>
+      </c>
+      <c r="F68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G68" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2">
         <f>course_requisites!D:D</f>
@@ -12188,25 +12196,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="11" t="str">
+      <c r="C69" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F69" s="10">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G69" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2">
         <f>course_requisites!D:D</f>
@@ -12226,25 +12234,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="11" t="str">
+      <c r="C70" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F70" s="10">
+        <v>18</v>
+      </c>
+      <c r="F70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G70" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H70" s="2">
         <f>course_requisites!D:D</f>
@@ -12264,25 +12272,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="11" t="str">
+      <c r="C71" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E71" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F71" s="10">
+        <v>15</v>
+      </c>
+      <c r="F71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G71" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2">
         <f>course_requisites!D:D</f>
@@ -12302,25 +12310,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="11" t="str">
+      <c r="C72" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E72" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F72" s="10">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G72" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="G72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
         <f>course_requisites!D:D</f>
@@ -12340,25 +12348,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="11" t="str">
+      <c r="C73" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E73" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F73" s="10">
+        <v>15</v>
+      </c>
+      <c r="F73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73" s="2">
         <f>course_requisites!D:D</f>
@@ -12378,25 +12386,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="11" t="str">
+      <c r="C74" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E74" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F74" s="10">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G74" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H74" s="2">
         <f>course_requisites!D:D</f>
@@ -12416,23 +12424,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="11" t="str">
+      <c r="C75" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F75" s="10">
+        <v>12</v>
+      </c>
+      <c r="F75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G75" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -12454,25 +12462,25 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="11" t="str">
+      <c r="C76" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H76" s="2">
         <f>course_requisites!D:D</f>
@@ -20703,7 +20711,7 @@
       <c r="B2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D2" s="2"/>
@@ -27203,11 +27211,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="10">
         <v>6.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -27217,11 +27225,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.0</v>
+      <c r="B3" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6.0</v>
       </c>
       <c r="D3" s="2">
         <v>0.0</v>
@@ -27231,10 +27239,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -27245,11 +27253,11 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.0</v>
+      <c r="B5" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -27259,11 +27267,11 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.0</v>
+      <c r="B6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12.0</v>
       </c>
       <c r="D6" s="2">
         <v>0.0</v>
@@ -27273,11 +27281,11 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.0</v>
+      <c r="B7" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9.0</v>
       </c>
       <c r="D7" s="2">
         <v>0.0</v>
@@ -27287,11 +27295,11 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.0</v>
+      <c r="B8" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12.0</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -27301,11 +27309,11 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>12.0</v>
+      <c r="B9" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>15.0</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -27315,11 +27323,11 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>0.0</v>
       </c>
-      <c r="C10" s="3">
-        <v>18.0</v>
+      <c r="C10" s="10">
+        <v>21.0</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -27329,10 +27337,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -27343,10 +27351,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="C12" s="10">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -27357,11 +27365,11 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.0</v>
+      <c r="B13" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>9.0</v>
       </c>
       <c r="D13" s="2">
         <v>0.0</v>
@@ -27371,11 +27379,11 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>12.0</v>
+      <c r="B14" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15.0</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -27385,11 +27393,11 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9.0</v>
+      <c r="B15" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12.0</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -27399,11 +27407,11 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>0.0</v>
       </c>
-      <c r="C16" s="3">
-        <v>9.0</v>
+      <c r="C16" s="10">
+        <v>12.0</v>
       </c>
       <c r="D16" s="2">
         <v>0.0</v>
@@ -27413,11 +27421,11 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.0</v>
+      <c r="B17" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6.0</v>
       </c>
       <c r="D17" s="2">
         <v>0.0</v>
@@ -27427,10 +27435,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>0.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="10">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -27441,10 +27449,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="10">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -27455,11 +27463,11 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6.0</v>
+      <c r="B20" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>9.0</v>
       </c>
       <c r="D20" s="2">
         <v>0.0</v>
@@ -27469,11 +27477,11 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9.0</v>
+      <c r="B21" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12.0</v>
       </c>
       <c r="D21" s="2">
         <v>0.0</v>
@@ -27483,11 +27491,11 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>15.0</v>
+      <c r="B22" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>18.0</v>
       </c>
       <c r="D22" s="2">
         <v>0.0</v>
@@ -27497,11 +27505,11 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>12.0</v>
+      <c r="B23" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>15.0</v>
       </c>
       <c r="D23" s="2">
         <v>0.0</v>
@@ -27511,11 +27519,11 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>0.0</v>
       </c>
-      <c r="C24" s="3">
-        <v>21.0</v>
+      <c r="C24" s="10">
+        <v>24.0</v>
       </c>
       <c r="D24" s="2">
         <v>0.0</v>
@@ -27525,10 +27533,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="10">
+        <v>-4.0</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -27539,10 +27547,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="C26" s="10">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -27553,10 +27561,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="10">
+        <v>-2.0</v>
+      </c>
+      <c r="C27" s="10">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -27567,11 +27575,11 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3">
-        <v>-5.0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6.0</v>
+      <c r="B28" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>9.0</v>
       </c>
       <c r="D28" s="2">
         <v>0.0</v>
@@ -27581,10 +27589,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="3">
-        <v>-6.0</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="C29" s="10">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -27595,11 +27603,11 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3">
-        <v>-3.0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6.0</v>
+      <c r="B30" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>9.0</v>
       </c>
       <c r="D30" s="2">
         <v>0.0</v>
@@ -27609,11 +27617,11 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>12.0</v>
+      <c r="B31" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="C31" s="10">
+        <v>15.0</v>
       </c>
       <c r="D31" s="2">
         <v>0.0</v>
@@ -27623,11 +27631,11 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3">
-        <v>-2.0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>15.0</v>
+      <c r="B32" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>18.0</v>
       </c>
       <c r="D32" s="2">
         <v>0.0</v>
@@ -27637,55 +27645,55 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>15.0</v>
+      <c r="B33" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>18.0</v>
       </c>
       <c r="D33" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -28677,25 +28685,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -28708,23 +28716,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E2" s="11">
+        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="E2" s="10">
-        <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28746,23 +28754,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28784,23 +28792,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="11">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F4" s="10">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G4" s="11">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -28822,25 +28830,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="11">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="11">
+        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H5" s="2">
         <f>course_requisites!D:D</f>
@@ -28860,23 +28868,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="11">
+        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="11">
+        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="10">
-        <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="10">
-        <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28898,25 +28906,25 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="11">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="11">
+        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H7" s="2">
         <f>course_requisites!D:D</f>
@@ -28936,25 +28944,25 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="11">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G8" s="10">
-        <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>course_requisites!D:D</f>
@@ -28974,23 +28982,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="11">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="10">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29012,25 +29020,25 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E10" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="11">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G10" s="11">
+        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="10">
-        <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H10" s="2">
         <f>course_requisites!D:D</f>
@@ -29050,25 +29058,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="11">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G11" s="11">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <f>course_requisites!D:D</f>
@@ -29088,25 +29096,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="11">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="10">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G12" s="11">
+        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="10">
-        <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
-        <v>3</v>
       </c>
       <c r="H12" s="2">
         <f>course_requisites!D:D</f>
@@ -29126,25 +29134,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="11">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G13" s="11">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2">
         <f>course_requisites!D:D</f>
@@ -29164,25 +29172,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="11">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="11">
+        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="10">
-        <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H14" s="2">
         <f>course_requisites!D:D</f>
@@ -29202,25 +29210,25 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E15" s="11">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G15" s="11">
+        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G15" s="10">
-        <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H15" s="2">
         <f>course_requisites!D:D</f>
@@ -29240,25 +29248,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F16" s="10">
+        <v>21</v>
+      </c>
+      <c r="F16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G16" s="11">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
         <f>course_requisites!D:D</f>
@@ -29278,25 +29286,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="F17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
-      </c>
-      <c r="F17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="10">
-        <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
-        <v>15</v>
       </c>
       <c r="H17" s="2">
         <f>course_requisites!D:D</f>
@@ -29316,25 +29324,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F18" s="10">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G18" s="11">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
         <f>course_requisites!D:D</f>
@@ -29354,25 +29362,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F19" s="10">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G19" s="11">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <f>course_requisites!D:D</f>
@@ -29392,25 +29400,25 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
-        <v>18</v>
-      </c>
-      <c r="F20" s="10">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G20" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G20" s="11">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
         <f>course_requisites!D:D</f>
@@ -29430,23 +29438,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="E21" s="11">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29468,23 +29476,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="E22" s="11">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="10">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G22" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G22" s="11">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29506,23 +29514,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="11">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F23" s="10">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G23" s="11">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29544,25 +29552,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="11">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
+        <v>-3.3</v>
+      </c>
+      <c r="G24" s="11">
+        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="10">
-        <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H24" s="2">
         <f>course_requisites!D:D</f>
@@ -29582,25 +29590,25 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E25" s="11">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F25" s="10">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G25" s="11">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <f>course_requisites!D:D</f>
@@ -29620,23 +29628,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E26" s="11">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F26" s="10">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G26" s="11">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29658,25 +29666,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="11" t="str">
+      <c r="C27" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E27" s="11">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F27" s="10">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G27" s="11">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
         <f>course_requisites!D:D</f>
@@ -29696,25 +29704,25 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="11" t="str">
+      <c r="C28" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
+        <v>-3.3</v>
+      </c>
+      <c r="E28" s="11">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G28" s="11">
+        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="10">
-        <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H28" s="2">
         <f>course_requisites!D:D</f>
@@ -29734,23 +29742,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
+        <v>-2.4</v>
+      </c>
+      <c r="E29" s="11">
+        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="11">
+        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="10">
-        <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="10">
-        <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="G29" s="11">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29772,23 +29780,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="11" t="str">
+      <c r="C30" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="11">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="11">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29810,23 +29818,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="11" t="str">
+      <c r="C31" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E31" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="11">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F31" s="10">
+        <v>9</v>
+      </c>
+      <c r="F31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29848,23 +29856,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="11" t="str">
+      <c r="C32" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E32" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E32" s="11">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29886,23 +29894,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C33" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E33" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E33" s="11">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G33" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G33" s="11">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29924,23 +29932,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="11" t="str">
+      <c r="C34" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E34" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E34" s="11">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G34" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G34" s="11">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29962,25 +29970,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="11" t="str">
+      <c r="C35" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E35" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E35" s="11">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G35" s="11">
+        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G35" s="10">
-        <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H35" s="2">
         <f>course_requisites!D:D</f>
@@ -30000,25 +30008,25 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="11" t="str">
+      <c r="C36" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E36" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E36" s="11">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
+        <v>-7.1</v>
+      </c>
+      <c r="G36" s="11">
+        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G36" s="10">
-        <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H36" s="2">
         <f>course_requisites!D:D</f>
@@ -30038,23 +30046,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="11" t="str">
+      <c r="C37" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E37" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="E37" s="11">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F37" s="10">
+        <v>12</v>
+      </c>
+      <c r="F37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G37" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G37" s="11">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30076,23 +30084,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E38" s="11">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F38" s="10">
+        <v>18</v>
+      </c>
+      <c r="F38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="11">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30114,23 +30122,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E39" s="11">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F39" s="10">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G39" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G39" s="11">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30152,25 +30160,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E40" s="11">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G40" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G40" s="11">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
         <f>course_requisites!D:D</f>
@@ -30190,25 +30198,25 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E41" s="11">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G41" s="11">
+        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H41" s="2">
         <f>course_requisites!D:D</f>
@@ -30228,23 +30236,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E42" s="11">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F42" s="10">
+        <v>18</v>
+      </c>
+      <c r="F42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G42" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G42" s="11">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30266,23 +30274,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="E43" s="11">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F43" s="10">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G43" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G43" s="11">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30304,25 +30312,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E44" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E44" s="11">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="10">
+        <v>15</v>
+      </c>
+      <c r="F44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2">
         <f>course_requisites!D:D</f>
@@ -30342,23 +30350,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C45" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E45" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E45" s="11">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F45" s="10">
+        <v>15</v>
+      </c>
+      <c r="F45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G45" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G45" s="11">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30380,25 +30388,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C46" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E46" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E46" s="11">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F46" s="10">
+        <v>15</v>
+      </c>
+      <c r="F46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G46" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G46" s="11">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" s="2">
         <f>course_requisites!D:D</f>
@@ -30418,25 +30426,25 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="11" t="str">
+      <c r="C47" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E47" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="E47" s="11">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="F47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="G47" s="11">
+        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
-      </c>
-      <c r="F47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G47" s="10">
-        <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
-        <v>9</v>
       </c>
       <c r="H47" s="2">
         <f>course_requisites!D:D</f>
@@ -30456,25 +30464,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F48" s="10">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G48" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="G48" s="11">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2">
         <f>course_requisites!D:D</f>
@@ -30494,25 +30502,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="11">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F49" s="10">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2">
         <f>course_requisites!D:D</f>
@@ -30532,25 +30540,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="11">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F50" s="10">
+        <v>24</v>
+      </c>
+      <c r="F50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="G50" s="11">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H50" s="2">
         <f>course_requisites!D:D</f>
@@ -30570,25 +30578,25 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="11">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F51" s="10">
+        <v>24</v>
+      </c>
+      <c r="F51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="11">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2">
         <f>course_requisites!D:D</f>
@@ -30608,23 +30616,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="11" t="str">
+      <c r="C52" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="E52" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="E52" s="11">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G52" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G52" s="11">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30646,23 +30654,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="11" t="str">
+      <c r="C53" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E53" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E53" s="11">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F53" s="10">
+        <v>9</v>
+      </c>
+      <c r="F53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G53" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G53" s="11">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30684,23 +30692,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="11" t="str">
+      <c r="C54" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="E54" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="E54" s="11">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F54" s="10">
+        <v>9</v>
+      </c>
+      <c r="F54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G54" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G54" s="11">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30722,23 +30730,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="11" t="str">
+      <c r="C55" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E55" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E55" s="11">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G55" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G55" s="11">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30760,23 +30768,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="11" t="str">
+      <c r="C56" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="E56" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="E56" s="11">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G56" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G56" s="11">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30798,23 +30806,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="11" t="str">
+      <c r="C57" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E57" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E57" s="11">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F57" s="10">
+        <v>9</v>
+      </c>
+      <c r="F57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G57" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G57" s="11">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30836,23 +30844,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="11" t="str">
+      <c r="C58" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="E58" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="E58" s="11">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F58" s="10">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G58" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G58" s="11">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30874,23 +30882,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="11" t="str">
+      <c r="C59" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E59" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E59" s="11">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F59" s="10">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
-        <v>-6</v>
-      </c>
-      <c r="G59" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="G59" s="11">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30912,25 +30920,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="11" t="str">
+      <c r="C60" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E60" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E60" s="11">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F60" s="10">
+        <v>18</v>
+      </c>
+      <c r="F60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G60" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G60" s="11">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2">
         <f>course_requisites!D:D</f>
@@ -30950,25 +30958,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="11" t="str">
+      <c r="C61" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E61" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E61" s="11">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F61" s="10">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G61" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G61" s="11">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H61" s="2">
         <f>course_requisites!D:D</f>
@@ -30988,25 +30996,25 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="11" t="str">
+      <c r="C62" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E62" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E62" s="11">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G62" s="11">
+        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H62" s="2">
         <f>course_requisites!D:D</f>
@@ -31026,23 +31034,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="11" t="str">
+      <c r="C63" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="E63" s="10">
+        <v>-4.1</v>
+      </c>
+      <c r="E63" s="11">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F63" s="10">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G63" s="10">
+        <v>-3.6</v>
+      </c>
+      <c r="G63" s="11">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31064,23 +31072,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="11" t="str">
+      <c r="C64" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
+        <v>-4.1</v>
+      </c>
+      <c r="E64" s="11">
+        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F64" s="11">
+        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E64" s="10">
-        <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F64" s="10">
-        <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="G64" s="11">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31102,25 +31110,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="11" t="str">
+      <c r="C65" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
+        <v>-5.6</v>
+      </c>
+      <c r="G65" s="11">
+        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
-      </c>
-      <c r="F65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="G65" s="10">
-        <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
-        <v>12</v>
       </c>
       <c r="H65" s="2">
         <f>course_requisites!D:D</f>
@@ -31140,25 +31148,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="11" t="str">
+      <c r="C66" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F66" s="10">
+        <v>18</v>
+      </c>
+      <c r="F66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
-        <v>-4</v>
-      </c>
-      <c r="G66" s="10">
+        <v>-6.6</v>
+      </c>
+      <c r="G66" s="11">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H66" s="2">
         <f>course_requisites!D:D</f>
@@ -31178,25 +31186,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="11" t="str">
+      <c r="C67" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F67" s="10">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G67" s="10">
+        <v>-2.4</v>
+      </c>
+      <c r="G67" s="11">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H67" s="2">
         <f>course_requisites!D:D</f>
@@ -31216,25 +31224,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="11" t="str">
+      <c r="C68" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F68" s="10">
+        <v>18</v>
+      </c>
+      <c r="F68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G68" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G68" s="11">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2">
         <f>course_requisites!D:D</f>
@@ -31254,25 +31262,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="11" t="str">
+      <c r="C69" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F69" s="10">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="G69" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="G69" s="11">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2">
         <f>course_requisites!D:D</f>
@@ -31292,25 +31300,25 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="11" t="str">
+      <c r="C70" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F70" s="10">
+        <v>18</v>
+      </c>
+      <c r="F70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="G70" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="G70" s="11">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H70" s="2">
         <f>course_requisites!D:D</f>
@@ -31330,25 +31338,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="11" t="str">
+      <c r="C71" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E71" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E71" s="11">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F71" s="10">
+        <v>15</v>
+      </c>
+      <c r="F71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
-        <v>-3</v>
-      </c>
-      <c r="G71" s="10">
+        <v>-4.3</v>
+      </c>
+      <c r="G71" s="11">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2">
         <f>course_requisites!D:D</f>
@@ -31368,25 +31376,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="11" t="str">
+      <c r="C72" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E72" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E72" s="11">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F72" s="10">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
-        <v>-5</v>
-      </c>
-      <c r="G72" s="10">
+        <v>-7.1</v>
+      </c>
+      <c r="G72" s="11">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2">
         <f>course_requisites!D:D</f>
@@ -31406,25 +31414,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="11" t="str">
+      <c r="C73" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E73" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E73" s="11">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F73" s="10">
+        <v>15</v>
+      </c>
+      <c r="F73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="11">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73" s="2">
         <f>course_requisites!D:D</f>
@@ -31444,25 +31452,25 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="11" t="str">
+      <c r="C74" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
-        <v>-1</v>
-      </c>
-      <c r="E74" s="10">
+        <v>-5.6</v>
+      </c>
+      <c r="E74" s="11">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
-        <v>12</v>
-      </c>
-      <c r="F74" s="10">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G74" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="G74" s="11">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H74" s="2">
         <f>course_requisites!D:D</f>
@@ -31482,23 +31490,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="11" t="str">
+      <c r="C75" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="11">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F75" s="10">
+        <v>12</v>
+      </c>
+      <c r="F75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G75" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G75" s="11">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31520,25 +31528,25 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="11" t="str">
+      <c r="C76" s="12" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="11">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G76" s="11">
+        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
-      </c>
-      <c r="F76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G76" s="10">
-        <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
-        <v>6</v>
       </c>
       <c r="H76" s="2">
         <f>course_requisites!D:D</f>

--- a/data/dsci_data.xlsx
+++ b/data/dsci_data.xlsx
@@ -627,20 +627,21 @@
   <si>
     <t>&lt;h3&gt;Course Information&lt;/h3&gt;
 &lt;p&gt;The course map presents all DSCI, STAT, MATH, and CPSC courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
-&lt;p&gt;The course map was created by &lt;a href='https://patrickwalls.github.io/'&gt;Patrick Walls&lt;/a&gt; with contributions from &lt;a href='https://github.com/zzzzzyzzzzz'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
-&lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
+&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, with contributions from &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Major in Data Science</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Major in Data Science - Specialization Requirements&lt;/h3&gt;\n&lt;figure class=\"responsive-figure-table\"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 103&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 100 (or 180 or 120 or 110)&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 (or 121)&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communications Requirement&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 200, 220, 221&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 200, 221&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 330 or 340&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 368&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 310, 320, 430&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 301, 302, 305, 443&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Any Upper level MATH_V, STAT_V, CPSC_V or DSCI_V&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Data Science Depth Requirement&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;1&lt;/sup&gt; Students are permitted to move elective credits between years. Students who take courses in MATH_V with extra credits will require fewer elective credits in later years. Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href=\"/node/15386\" rel=\"nofollow\"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href=\"/node/15386#18467\" rel=\"nofollow\"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href=\"/node/15398\" rel=\"nofollow\"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href=\"/node/15385\" rel=\"nofollow\"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href=\"/node/15387\" rel=\"nofollow\"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href=\"/node/15405\" rel=\"nofollow\"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;2&lt;/sup&gt; For a full list of acceptable courses see &lt;a href=\"/node/15384\" rel=\"nofollow\"&gt;Communication Requirement&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;3&lt;/sup&gt; At least 6 credits must be 400-level or higher.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;4&lt;/sup&gt; Students must choose from a list of courses. See the Data Science website for more detail.&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
+    <t>&lt;p class="degree-note"&gt;&lt;em&gt;Note: The course map on the right represents only a subset of the requirements needed to complete the degree. Please refer to the table below or the &lt;a href = 'https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/data-science#:~:text=Major%3A%20Data%20Science%20(DSCI)' target = '_blank'&gt;UBC Academic Calendar&lt;/a&gt; for complete degree requirements.&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Major in Data Science - Specialization Requirements&lt;/h3&gt;
+&lt;figure class="responsive-figure-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 103&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 100 (or 180 or 120 or 110)&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 (or 121)&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communications Requirement&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 200, 220, 221&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 200, 221&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 330 or 340&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 368&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 310, 320, 430&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 301, 302, 305, 443&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Any Upper level MATH_V, STAT_V, CPSC_V or DSCI_V&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Data Science Depth Requirement&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;1&lt;/sup&gt; Students are permitted to move elective credits between years. Students who take courses in MATH_V with extra credits will require fewer elective credits in later years. Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386" target = '_blank' rel="nofollow"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386#18467" target = '_blank' rel="nofollow"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href="https://vancouver.calendar.ubc.ca/node/15398" target = '_blank' rel="nofollow"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href="https://vancouver.calendar.ubc.ca/node/15385" target = '_blank' rel="nofollow"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href="https://vancouver.calendar.ubc.ca/node/15387" target = '_blank' rel="nofollow"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href="https://vancouver.calendar.ubc.ca/node/15405" target = '_blank' rel="nofollow"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;2&lt;/sup&gt; For a full list of acceptable courses see &lt;a href="https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/communication-requirements" target = '_blank' rel="nofollow"&gt;Communication Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;3&lt;/sup&gt; At least 6 credits must be 400-level or higher.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan=\"2\"&gt;&lt;sup&gt;4&lt;/sup&gt; Students must choose from a list of courses. See the Data Science website for more detail.&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
   </si>
   <si>
     <t>Minor in Data Science</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Minor in Data Science - Requirements&lt;/h3&gt;&lt;h4&gt;Lower-Level Requirements&lt;/h4&gt;&lt;ul&gt;&lt;li&gt;Data Science: 3 credits of DSCI_V 100.&lt;/li&gt;&lt;li&gt;Statistical Inference: 3 credits of STAT_V 201.&lt;/li&gt;&lt;li&gt;Pre-requisites for required upper-level courses&lt;/li&gt;&lt;li&gt;Programming: 6 credits given by the prerequisites for &lt;a href=\"http://www.courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;amp;tname=subj-department&amp;amp;dept=CPSC\" rel=\"nofollow\"&gt;CPSC_V 330&lt;/a&gt;. For most non-CS majors, we recommend CPSC_V 103 followed by CPSC_V 203.&lt;/li&gt;&lt;li&gt;Math: 3 credits given by the prerequisites for &lt;a href=\"http://www.courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;amp;tname=subj-department&amp;amp;dept=STAT\" rel=\"nofollow\"&gt;STAT_V 301&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;h4&gt;Upper-Level Requirements&lt;/h4&gt;&lt;p&gt;18 credits selected as follows:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;STAT_V 301&lt;/li&gt;&lt;li&gt;CPSC_V 330&lt;/li&gt;&lt;li&gt;One of DSCI_V 430, CPSC_V 430&lt;/li&gt;&lt;li&gt;Three of the following five options:&lt;ul&gt;&lt;li&gt;DSCI_V 310&lt;/li&gt;&lt;li&gt;DSCI_V 320&lt;/li&gt;&lt;li&gt;CPSC_V 416&lt;/li&gt;&lt;li&gt;One of CPSC_V 368, CPSC_V 304, COMM_V 437&lt;/li&gt;&lt;li&gt;One of COMM_V 335, COMM_V 365, COMM_V 414, COMM_V 415, COMM_V 475, CPSC_V 322, CPSC_V 340, CPSC_V 406, CPSC_V 447, ECON_V 398, ECON_V 425, EOSC_V 440, EOSC_V 410, EOSC_V 354, INFO_V 419, LING_V 342, MATH_V 441, MATH_V 442, MICB_V 405, MICB_V 425, NSCI_V 303, PHYS_V 410, PSYC_V 359, STAT_V 406, STAT_V 447B, STAT_V 450&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p class="degree-note"&gt;&lt;em&gt;Note: The course map on the right represents only a subset of the requirements needed to complete the degree. Please refer to the information below or the &lt;a href = 'https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/data-science#:~:text=minor%2Din%2Ddata-,Minor%20in%20Data%20Science,-The%20Data%20Science' target = '_blank'&gt;UBC Academic Calendar&lt;/a&gt; for complete degree requirements.&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Minor in Data Science - Requirements&lt;/h3&gt;&lt;/h3&gt;&lt;h4&gt;Lower-Level Requirements&lt;/h4&gt;&lt;ul&gt;&lt;li&gt;Data Science: 3 credits of DSCI_V 100.&lt;/li&gt;&lt;li&gt;Statistical Inference: 3 credits of STAT_V 201.&lt;/li&gt;&lt;li&gt;Pre-requisites for required upper-level courses&lt;/li&gt;&lt;li&gt;Programming: 6 credits given by the prerequisites for &lt;a href=\"http://www.courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;amp;tname=subj-department&amp;amp;dept=CPSC\" rel=\"nofollow\"&gt;CPSC_V 330&lt;/a&gt;. For most non-CS majors, we recommend CPSC_V 103 followed by CPSC_V 203.&lt;/li&gt;&lt;li&gt;Math: 3 credits given by the prerequisites for &lt;a href=\"http://www.courses.students.ubc.ca/cs/courseschedule?pname=subjarea&amp;amp;tname=subj-department&amp;amp;dept=STAT\" rel=\"nofollow\"&gt;STAT_V 301&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;h4&gt;Upper-Level Requirements&lt;/h4&gt;&lt;p&gt;18 credits selected as follows:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;STAT_V 301&lt;/li&gt;&lt;li&gt;CPSC_V 330&lt;/li&gt;&lt;li&gt;One of DSCI_V 430, CPSC_V 430&lt;/li&gt;&lt;li&gt;Three of the following five options:&lt;ul&gt;&lt;li&gt;DSCI_V 310&lt;/li&gt;&lt;li&gt;DSCI_V 320&lt;/li&gt;&lt;li&gt;CPSC_V 416&lt;/li&gt;&lt;li&gt;One of CPSC_V 368, CPSC_V 304, COMM_V 437&lt;/li&gt;&lt;li&gt;One of COMM_V 335, COMM_V 365, COMM_V 414, COMM_V 415, COMM_V 475, CPSC_V 322, CPSC_V 340, CPSC_V 406, CPSC_V 447, ECON_V 398, ECON_V 425, EOSC_V 440, EOSC_V 410, EOSC_V 354, INFO_V 419, LING_V 342, MATH_V 441, MATH_V 442, MICB_V 405, MICB_V 425, NSCI_V 303, PHYS_V 410, PSYC_V 359, STAT_V 406, STAT_V 447B, STAT_V 450&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>x</t>
@@ -677,7 +678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -703,11 +704,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -749,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,9 +768,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -2661,6 +2654,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.29"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2681,11 +2675,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>4.5</v>
+      <c r="B2" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.0</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -2695,11 +2689,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4.5</v>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.0</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -2709,10 +2703,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -2723,11 +2717,11 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="3">
         <v>4.3</v>
       </c>
-      <c r="C5" s="10">
-        <v>6.0</v>
+      <c r="C5" s="3">
+        <v>9.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -2737,11 +2731,11 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="3">
         <v>3.3</v>
       </c>
-      <c r="C6" s="10">
-        <v>9.0</v>
+      <c r="C6" s="3">
+        <v>12.0</v>
       </c>
       <c r="D6" s="2">
         <v>0.0</v>
@@ -2751,11 +2745,11 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="3">
         <v>7.1</v>
       </c>
-      <c r="C7" s="10">
-        <v>6.0</v>
+      <c r="C7" s="3">
+        <v>9.0</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -2765,11 +2759,11 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>6.6</v>
       </c>
-      <c r="C8" s="10">
-        <v>9.0</v>
+      <c r="C8" s="3">
+        <v>12.0</v>
       </c>
       <c r="D8" s="2">
         <v>1.0</v>
@@ -2779,11 +2773,11 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>5.6</v>
       </c>
-      <c r="C9" s="10">
-        <v>12.0</v>
+      <c r="C9" s="3">
+        <v>15.0</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -2793,11 +2787,11 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
-      <c r="C10" s="10">
-        <v>18.0</v>
+      <c r="C10" s="3">
+        <v>21.0</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -2807,10 +2801,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="3">
         <v>2.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -2821,10 +2815,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="3">
         <v>3.6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="3">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -2835,11 +2829,11 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="C13" s="10">
-        <v>6.0</v>
+      <c r="B13" s="3">
+        <v>-1.4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.0</v>
       </c>
       <c r="D13" s="2">
         <v>1.0</v>
@@ -2849,11 +2843,11 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>1.9</v>
       </c>
-      <c r="C14" s="10">
-        <v>12.0</v>
+      <c r="C14" s="3">
+        <v>15.0</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -2863,11 +2857,11 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="3">
         <v>-3.3</v>
       </c>
-      <c r="C15" s="10">
-        <v>9.0</v>
+      <c r="C15" s="3">
+        <v>12.0</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -2877,11 +2871,11 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="3">
         <v>0.0</v>
       </c>
-      <c r="C16" s="10">
-        <v>9.0</v>
+      <c r="C16" s="3">
+        <v>12.0</v>
       </c>
       <c r="D16" s="2">
         <v>0.0</v>
@@ -2891,11 +2885,11 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="3">
         <v>-2.4</v>
       </c>
-      <c r="C17" s="10">
-        <v>4.5</v>
+      <c r="C17" s="3">
+        <v>6.0</v>
       </c>
       <c r="D17" s="2">
         <v>1.0</v>
@@ -2905,10 +2899,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="3">
         <v>0.0</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -2919,10 +2913,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="3">
         <v>1.2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="3">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -2933,11 +2927,11 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="10">
-        <v>-1.4</v>
-      </c>
-      <c r="C20" s="10">
-        <v>6.0</v>
+      <c r="B20" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.0</v>
       </c>
       <c r="D20" s="2">
         <v>1.0</v>
@@ -2947,11 +2941,11 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="3">
         <v>-6.6</v>
       </c>
-      <c r="C21" s="10">
-        <v>9.0</v>
+      <c r="C21" s="3">
+        <v>12.0</v>
       </c>
       <c r="D21" s="2">
         <v>1.0</v>
@@ -2961,11 +2955,11 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="3">
         <v>4.1</v>
       </c>
-      <c r="C22" s="10">
-        <v>15.0</v>
+      <c r="C22" s="3">
+        <v>18.0</v>
       </c>
       <c r="D22" s="2">
         <v>1.0</v>
@@ -2975,11 +2969,11 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="3">
         <v>-1.9</v>
       </c>
-      <c r="C23" s="10">
-        <v>12.0</v>
+      <c r="C23" s="3">
+        <v>15.0</v>
       </c>
       <c r="D23" s="2">
         <v>1.0</v>
@@ -2989,11 +2983,11 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="3">
         <v>0.0</v>
       </c>
-      <c r="C24" s="10">
-        <v>21.0</v>
+      <c r="C24" s="3">
+        <v>24.0</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
@@ -3003,10 +2997,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="3">
         <v>-4.0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -3017,10 +3011,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>-3.6</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="3">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -3031,10 +3025,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="3">
         <v>-2.0</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="3">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -3045,11 +3039,11 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="3">
         <v>-7.1</v>
       </c>
-      <c r="C28" s="10">
-        <v>6.0</v>
+      <c r="C28" s="3">
+        <v>9.0</v>
       </c>
       <c r="D28" s="2">
         <v>0.0</v>
@@ -3059,10 +3053,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="3">
         <v>-1.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="3">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -3073,11 +3067,11 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="3">
         <v>-4.3</v>
       </c>
-      <c r="C30" s="10">
-        <v>6.0</v>
+      <c r="C30" s="3">
+        <v>9.0</v>
       </c>
       <c r="D30" s="2">
         <v>0.0</v>
@@ -3087,11 +3081,11 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="3">
         <v>-5.6</v>
       </c>
-      <c r="C31" s="10">
-        <v>12.0</v>
+      <c r="C31" s="3">
+        <v>15.0</v>
       </c>
       <c r="D31" s="2">
         <v>0.0</v>
@@ -3101,11 +3095,11 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="3">
         <v>-4.1</v>
       </c>
-      <c r="C32" s="10">
-        <v>15.0</v>
+      <c r="C32" s="3">
+        <v>18.0</v>
       </c>
       <c r="D32" s="2">
         <v>1.0</v>
@@ -3115,55 +3109,55 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="3">
         <v>0.0</v>
       </c>
-      <c r="C33" s="10">
-        <v>15.0</v>
+      <c r="C33" s="3">
+        <v>18.0</v>
       </c>
       <c r="D33" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -4155,25 +4149,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4186,23 +4180,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4224,23 +4218,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4262,23 +4256,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4300,23 +4294,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4338,23 +4332,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4376,23 +4370,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4414,23 +4408,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4452,23 +4446,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4490,23 +4484,23 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4528,23 +4522,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4566,23 +4560,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4604,23 +4598,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4642,23 +4636,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -4680,23 +4674,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -4718,23 +4712,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -4756,23 +4750,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -4794,23 +4788,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4832,23 +4826,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4870,23 +4864,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -4908,23 +4902,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4946,23 +4940,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="12" t="str">
+      <c r="C22" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4984,23 +4978,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5022,23 +5016,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5060,23 +5054,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5098,23 +5092,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5136,23 +5130,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5174,23 +5168,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5212,23 +5206,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5250,23 +5244,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>1.2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5288,23 +5282,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5326,23 +5320,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5364,23 +5358,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5402,23 +5396,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5440,23 +5434,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5478,23 +5472,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5516,23 +5510,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5554,23 +5548,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5592,23 +5586,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5630,23 +5624,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5668,23 +5662,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="12" t="str">
+      <c r="C41" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -5706,23 +5700,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="12" t="str">
+      <c r="C42" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5744,23 +5738,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="12" t="str">
+      <c r="C43" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5782,23 +5776,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="12" t="str">
+      <c r="C44" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5820,23 +5814,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="12" t="str">
+      <c r="C45" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5858,23 +5852,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="12" t="str">
+      <c r="C46" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5896,23 +5890,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="12" t="str">
+      <c r="C47" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5934,23 +5928,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -5972,23 +5966,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="12" t="str">
+      <c r="C49" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -6010,23 +6004,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="12" t="str">
+      <c r="C50" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6048,23 +6042,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C51" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
@@ -6086,23 +6080,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="12" t="str">
+      <c r="C52" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6124,23 +6118,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C53" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6162,23 +6156,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="12" t="str">
+      <c r="C54" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6200,23 +6194,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="12" t="str">
+      <c r="C55" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6238,23 +6232,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="12" t="str">
+      <c r="C56" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6276,23 +6270,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="12" t="str">
+      <c r="C57" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6314,23 +6308,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6352,23 +6346,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="12" t="str">
+      <c r="C59" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6390,23 +6384,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="12" t="str">
+      <c r="C60" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6428,23 +6422,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C61" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -6466,23 +6460,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -6504,23 +6498,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6542,23 +6536,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6580,23 +6574,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -6618,23 +6612,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -6656,23 +6650,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -6694,23 +6688,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="12" t="str">
+      <c r="C68" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6732,23 +6726,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="12" t="str">
+      <c r="C69" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6770,23 +6764,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="12" t="str">
+      <c r="C70" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -6808,23 +6802,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C71" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6846,23 +6840,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="12" t="str">
+      <c r="C72" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6884,23 +6878,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C73" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -6922,23 +6916,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="12" t="str">
+      <c r="C74" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -6960,23 +6954,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="12" t="str">
+      <c r="C75" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6998,23 +6992,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="12" t="str">
+      <c r="C76" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -8125,6 +8119,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.29"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8145,11 +8140,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>4.5</v>
+      <c r="B2" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.0</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -8159,11 +8154,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4.5</v>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.0</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -8173,10 +8168,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -8187,11 +8182,11 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="3">
         <v>4.3</v>
       </c>
-      <c r="C5" s="10">
-        <v>6.0</v>
+      <c r="C5" s="3">
+        <v>9.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -8201,11 +8196,11 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="3">
         <v>3.3</v>
       </c>
-      <c r="C6" s="10">
-        <v>9.0</v>
+      <c r="C6" s="3">
+        <v>12.0</v>
       </c>
       <c r="D6" s="2">
         <v>0.0</v>
@@ -8215,11 +8210,11 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="3">
         <v>7.1</v>
       </c>
-      <c r="C7" s="10">
-        <v>6.0</v>
+      <c r="C7" s="3">
+        <v>9.0</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -8229,11 +8224,11 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>6.6</v>
       </c>
-      <c r="C8" s="10">
-        <v>9.0</v>
+      <c r="C8" s="3">
+        <v>12.0</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -8243,11 +8238,11 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>5.6</v>
       </c>
-      <c r="C9" s="10">
-        <v>12.0</v>
+      <c r="C9" s="3">
+        <v>15.0</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -8257,11 +8252,11 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
-      <c r="C10" s="10">
-        <v>18.0</v>
+      <c r="C10" s="3">
+        <v>21.0</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -8271,10 +8266,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="3">
         <v>2.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -8285,10 +8280,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="3">
         <v>3.6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="3">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -8299,11 +8294,11 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="C13" s="10">
-        <v>6.0</v>
+      <c r="B13" s="3">
+        <v>-1.4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.0</v>
       </c>
       <c r="D13" s="2">
         <v>0.0</v>
@@ -8313,11 +8308,11 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>1.9</v>
       </c>
-      <c r="C14" s="10">
-        <v>12.0</v>
+      <c r="C14" s="3">
+        <v>15.0</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -8327,11 +8322,11 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="3">
         <v>-3.3</v>
       </c>
-      <c r="C15" s="10">
-        <v>9.0</v>
+      <c r="C15" s="3">
+        <v>12.0</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -8341,11 +8336,11 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="3">
         <v>0.0</v>
       </c>
-      <c r="C16" s="10">
-        <v>9.0</v>
+      <c r="C16" s="3">
+        <v>12.0</v>
       </c>
       <c r="D16" s="2">
         <v>0.0</v>
@@ -8355,11 +8350,11 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="3">
         <v>-2.4</v>
       </c>
-      <c r="C17" s="10">
-        <v>4.5</v>
+      <c r="C17" s="3">
+        <v>6.0</v>
       </c>
       <c r="D17" s="2">
         <v>0.0</v>
@@ -8369,10 +8364,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="3">
         <v>0.0</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -8383,10 +8378,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="3">
         <v>1.2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="3">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -8397,11 +8392,11 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="10">
-        <v>-1.4</v>
-      </c>
-      <c r="C20" s="10">
-        <v>6.0</v>
+      <c r="B20" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.0</v>
       </c>
       <c r="D20" s="2">
         <v>0.0</v>
@@ -8411,11 +8406,11 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="3">
         <v>-6.6</v>
       </c>
-      <c r="C21" s="10">
-        <v>9.0</v>
+      <c r="C21" s="3">
+        <v>12.0</v>
       </c>
       <c r="D21" s="2">
         <v>0.0</v>
@@ -8425,11 +8420,11 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="3">
         <v>4.1</v>
       </c>
-      <c r="C22" s="10">
-        <v>15.0</v>
+      <c r="C22" s="3">
+        <v>18.0</v>
       </c>
       <c r="D22" s="2">
         <v>1.0</v>
@@ -8439,11 +8434,11 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="3">
         <v>-1.9</v>
       </c>
-      <c r="C23" s="10">
-        <v>12.0</v>
+      <c r="C23" s="3">
+        <v>15.0</v>
       </c>
       <c r="D23" s="2">
         <v>1.0</v>
@@ -8453,11 +8448,11 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="3">
         <v>0.0</v>
       </c>
-      <c r="C24" s="10">
-        <v>21.0</v>
+      <c r="C24" s="3">
+        <v>24.0</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
@@ -8467,10 +8462,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="3">
         <v>-4.0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -8481,10 +8476,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>-3.6</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="3">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -8495,10 +8490,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="3">
         <v>-2.0</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="3">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -8509,11 +8504,11 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="3">
         <v>-7.1</v>
       </c>
-      <c r="C28" s="10">
-        <v>6.0</v>
+      <c r="C28" s="3">
+        <v>9.0</v>
       </c>
       <c r="D28" s="2">
         <v>0.0</v>
@@ -8523,10 +8518,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="3">
         <v>-1.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="3">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -8537,11 +8532,11 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="3">
         <v>-4.3</v>
       </c>
-      <c r="C30" s="10">
-        <v>6.0</v>
+      <c r="C30" s="3">
+        <v>9.0</v>
       </c>
       <c r="D30" s="2">
         <v>0.0</v>
@@ -8551,11 +8546,11 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="3">
         <v>-5.6</v>
       </c>
-      <c r="C31" s="10">
-        <v>12.0</v>
+      <c r="C31" s="3">
+        <v>15.0</v>
       </c>
       <c r="D31" s="2">
         <v>0.0</v>
@@ -8565,11 +8560,11 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="3">
         <v>-4.1</v>
       </c>
-      <c r="C32" s="10">
-        <v>15.0</v>
+      <c r="C32" s="3">
+        <v>18.0</v>
       </c>
       <c r="D32" s="2">
         <v>1.0</v>
@@ -8579,55 +8574,55 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="3">
         <v>0.0</v>
       </c>
-      <c r="C33" s="10">
-        <v>15.0</v>
+      <c r="C33" s="3">
+        <v>18.0</v>
       </c>
       <c r="D33" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -9619,25 +9614,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9650,23 +9645,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9688,23 +9683,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9726,23 +9721,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9764,23 +9759,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9802,23 +9797,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9840,23 +9835,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9878,23 +9873,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9916,23 +9911,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9954,23 +9949,23 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9992,23 +9987,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10030,23 +10025,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10068,23 +10063,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10106,23 +10101,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10144,23 +10139,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10182,23 +10177,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -10220,23 +10215,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -10258,23 +10253,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10296,23 +10291,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10334,23 +10329,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10372,23 +10367,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10410,23 +10405,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="12" t="str">
+      <c r="C22" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10448,23 +10443,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10486,23 +10481,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10524,23 +10519,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10562,23 +10557,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10600,23 +10595,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10638,23 +10633,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10676,23 +10671,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10714,23 +10709,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>1.2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10752,23 +10747,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10790,23 +10785,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10828,23 +10823,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10866,23 +10861,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10904,23 +10899,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10942,23 +10937,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10980,23 +10975,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11018,23 +11013,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11056,23 +11051,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11094,23 +11089,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -11132,23 +11127,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="12" t="str">
+      <c r="C41" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -11170,23 +11165,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="12" t="str">
+      <c r="C42" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11208,23 +11203,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="12" t="str">
+      <c r="C43" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11246,23 +11241,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="12" t="str">
+      <c r="C44" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -11284,23 +11279,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="12" t="str">
+      <c r="C45" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11322,23 +11317,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="12" t="str">
+      <c r="C46" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -11360,23 +11355,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="12" t="str">
+      <c r="C47" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -11398,23 +11393,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -11436,23 +11431,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="12" t="str">
+      <c r="C49" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -11474,23 +11469,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="12" t="str">
+      <c r="C50" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -11512,23 +11507,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C51" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
@@ -11550,23 +11545,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="12" t="str">
+      <c r="C52" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11588,23 +11583,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C53" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11626,23 +11621,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="12" t="str">
+      <c r="C54" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11664,23 +11659,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="12" t="str">
+      <c r="C55" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11702,23 +11697,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="12" t="str">
+      <c r="C56" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11740,23 +11735,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="12" t="str">
+      <c r="C57" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11778,23 +11773,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -11816,23 +11811,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="12" t="str">
+      <c r="C59" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -11854,23 +11849,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="12" t="str">
+      <c r="C60" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -11892,23 +11887,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C61" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -11930,23 +11925,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -11968,23 +11963,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -12006,23 +12001,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -12044,23 +12039,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -12082,23 +12077,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -12120,23 +12115,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -12158,23 +12153,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="12" t="str">
+      <c r="C68" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -12196,23 +12191,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="12" t="str">
+      <c r="C69" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -12234,23 +12229,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="12" t="str">
+      <c r="C70" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -12272,23 +12267,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C71" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -12310,23 +12305,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="12" t="str">
+      <c r="C72" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -12348,23 +12343,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C73" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -12386,23 +12381,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="12" t="str">
+      <c r="C74" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -12424,23 +12419,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="12" t="str">
+      <c r="C75" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -12462,23 +12457,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="12" t="str">
+      <c r="C76" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -27191,6 +27186,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.29"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27211,10 +27207,10 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="3">
         <v>2.4</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="3">
         <v>6.0</v>
       </c>
       <c r="D2" s="2">
@@ -27225,10 +27221,10 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="3">
         <v>0.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="3">
         <v>6.0</v>
       </c>
       <c r="D3" s="2">
@@ -27239,10 +27235,10 @@
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
       <c r="D4" s="2">
@@ -27253,10 +27249,10 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="3">
         <v>4.3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>9.0</v>
       </c>
       <c r="D5" s="2">
@@ -27267,10 +27263,10 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="3">
         <v>3.3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="3">
         <v>12.0</v>
       </c>
       <c r="D6" s="2">
@@ -27281,10 +27277,10 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="3">
         <v>7.1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <v>9.0</v>
       </c>
       <c r="D7" s="2">
@@ -27295,10 +27291,10 @@
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>6.6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="3">
         <v>12.0</v>
       </c>
       <c r="D8" s="2">
@@ -27309,10 +27305,10 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>5.6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <v>15.0</v>
       </c>
       <c r="D9" s="2">
@@ -27323,10 +27319,10 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <v>21.0</v>
       </c>
       <c r="D10" s="2">
@@ -27337,10 +27333,10 @@
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="3">
         <v>2.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
       <c r="D11" s="2">
@@ -27351,10 +27347,10 @@
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="3">
         <v>3.6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="3">
         <v>3.0</v>
       </c>
       <c r="D12" s="2">
@@ -27365,10 +27361,10 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="3">
         <v>-1.4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="3">
         <v>9.0</v>
       </c>
       <c r="D13" s="2">
@@ -27379,10 +27375,10 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>1.9</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="3">
         <v>15.0</v>
       </c>
       <c r="D14" s="2">
@@ -27393,10 +27389,10 @@
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="3">
         <v>-3.3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
         <v>12.0</v>
       </c>
       <c r="D15" s="2">
@@ -27407,10 +27403,10 @@
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="3">
         <v>0.0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="3">
         <v>12.0</v>
       </c>
       <c r="D16" s="2">
@@ -27421,10 +27417,10 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="3">
         <v>-2.4</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
         <v>6.0</v>
       </c>
       <c r="D17" s="2">
@@ -27435,10 +27431,10 @@
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="3">
         <v>0.0</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>0.0</v>
       </c>
       <c r="D18" s="2">
@@ -27449,10 +27445,10 @@
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="3">
         <v>1.2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="3">
         <v>3.0</v>
       </c>
       <c r="D19" s="2">
@@ -27463,10 +27459,10 @@
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="3">
         <v>1.4</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="3">
         <v>9.0</v>
       </c>
       <c r="D20" s="2">
@@ -27477,10 +27473,10 @@
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="3">
         <v>-6.6</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="3">
         <v>12.0</v>
       </c>
       <c r="D21" s="2">
@@ -27491,10 +27487,10 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="3">
         <v>4.1</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="3">
         <v>18.0</v>
       </c>
       <c r="D22" s="2">
@@ -27505,10 +27501,10 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="3">
         <v>-1.9</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="3">
         <v>15.0</v>
       </c>
       <c r="D23" s="2">
@@ -27519,10 +27515,10 @@
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="3">
         <v>0.0</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="3">
         <v>24.0</v>
       </c>
       <c r="D24" s="2">
@@ -27533,10 +27529,10 @@
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="3">
         <v>-4.0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>0.0</v>
       </c>
       <c r="D25" s="2">
@@ -27547,10 +27543,10 @@
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>-3.6</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="3">
         <v>3.0</v>
       </c>
       <c r="D26" s="2">
@@ -27561,10 +27557,10 @@
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="3">
         <v>-2.0</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="3">
         <v>0.0</v>
       </c>
       <c r="D27" s="2">
@@ -27575,10 +27571,10 @@
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="3">
         <v>-7.1</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="3">
         <v>9.0</v>
       </c>
       <c r="D28" s="2">
@@ -27589,10 +27585,10 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="3">
         <v>-1.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="3">
         <v>3.0</v>
       </c>
       <c r="D29" s="2">
@@ -27603,10 +27599,10 @@
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="3">
         <v>-4.3</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="3">
         <v>9.0</v>
       </c>
       <c r="D30" s="2">
@@ -27617,10 +27613,10 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="3">
         <v>-5.6</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="3">
         <v>15.0</v>
       </c>
       <c r="D31" s="2">
@@ -27631,10 +27627,10 @@
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="3">
         <v>-4.1</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="3">
         <v>18.0</v>
       </c>
       <c r="D32" s="2">
@@ -27645,10 +27641,10 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="3">
         <v>0.0</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="3">
         <v>18.0</v>
       </c>
       <c r="D33" s="2">
@@ -27656,44 +27652,44 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -28685,25 +28681,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -28716,23 +28712,23 @@
         <f>course_requisites!B:B</f>
         <v>S200</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28754,23 +28750,23 @@
         <f>course_requisites!B:B</f>
         <v>S201</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28792,23 +28788,23 @@
         <f>course_requisites!B:B</f>
         <v>S251</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -28830,23 +28826,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -28868,23 +28864,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S203</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -28906,23 +28902,23 @@
         <f>course_requisites!B:B</f>
         <v>S300</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -28944,23 +28940,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -28982,23 +28978,23 @@
         <f>course_requisites!B:B</f>
         <v>S301</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29020,23 +29016,23 @@
         <f>course_requisites!B:B</f>
         <v>S302</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -29058,23 +29054,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -29096,23 +29092,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S200</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>2.4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -29134,23 +29130,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -29172,23 +29168,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S300</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>3.3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -29210,23 +29206,23 @@
         <f>course_requisites!B:B</f>
         <v>S306</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -29248,23 +29244,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S306</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>5.6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -29286,23 +29282,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -29324,23 +29320,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -29362,23 +29358,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -29400,23 +29396,23 @@
         <f>course_requisites!B:B</f>
         <v>S406</v>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -29438,23 +29434,23 @@
         <f>course_requisites!B:B</f>
         <v>M101</v>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29476,23 +29472,23 @@
         <f>course_requisites!B:B</f>
         <v>M200</v>
       </c>
-      <c r="C22" s="12" t="str">
+      <c r="C22" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29514,23 +29510,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29552,23 +29548,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M215</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -29590,23 +29586,23 @@
         <f>course_requisites!B:B</f>
         <v>M210</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -29628,23 +29624,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29666,23 +29662,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -29704,23 +29700,23 @@
         <f>course_requisites!B:B</f>
         <v>M215</v>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>-3.3</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -29742,23 +29738,23 @@
         <f>course_requisites!B:B</f>
         <v>M221</v>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29780,23 +29776,23 @@
         <f>course_requisites!B:B</f>
         <v>D200</v>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>1.2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29818,23 +29814,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M100</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29856,23 +29852,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29894,23 +29890,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -29932,23 +29928,23 @@
         <f>course_requisites!B:B</f>
         <v>D220</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -29970,23 +29966,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D220</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>1.4</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30008,23 +30004,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30046,23 +30042,23 @@
         <f>course_requisites!B:B</f>
         <v>D221</v>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30084,23 +30080,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D100</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30122,23 +30118,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30160,23 +30156,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30198,23 +30194,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C41" s="12" t="str">
+      <c r="C41" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -30236,23 +30232,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C42" s="12" t="str">
+      <c r="C42" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30274,23 +30270,23 @@
         <f>course_requisites!B:B</f>
         <v>D310</v>
       </c>
-      <c r="C43" s="12" t="str">
+      <c r="C43" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>4.1</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30312,23 +30308,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C44" s="12" t="str">
+      <c r="C44" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S201</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -30350,23 +30346,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C45" s="12" t="str">
+      <c r="C45" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30388,23 +30384,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C46" s="12" t="str">
+      <c r="C46" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30426,23 +30422,23 @@
         <f>course_requisites!B:B</f>
         <v>D320</v>
       </c>
-      <c r="C47" s="12" t="str">
+      <c r="C47" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-1.9</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -30464,23 +30460,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C330</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -30502,23 +30498,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C49" s="12" t="str">
+      <c r="C49" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C340</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -30540,23 +30536,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C50" s="12" t="str">
+      <c r="C50" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S301</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>7.1</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30578,23 +30574,23 @@
         <f>course_requisites!B:B</f>
         <v>D430</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C51" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S406</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>24</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
@@ -30616,23 +30612,23 @@
         <f>course_requisites!B:B</f>
         <v>C107</v>
       </c>
-      <c r="C52" s="12" t="str">
+      <c r="C52" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30654,23 +30650,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C53" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30692,23 +30688,23 @@
         <f>course_requisites!B:B</f>
         <v>C121</v>
       </c>
-      <c r="C54" s="12" t="str">
+      <c r="C54" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30730,23 +30726,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C55" s="12" t="str">
+      <c r="C55" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C103</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30768,23 +30764,23 @@
         <f>course_requisites!B:B</f>
         <v>C203</v>
       </c>
-      <c r="C56" s="12" t="str">
+      <c r="C56" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <f>VLOOKUP(B56,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <f>VLOOKUP(C56,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30806,23 +30802,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C57" s="12" t="str">
+      <c r="C57" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <f>VLOOKUP(B57,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <f>VLOOKUP(C57,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30844,23 +30840,23 @@
         <f>course_requisites!B:B</f>
         <v>C210</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <f>VLOOKUP(B58,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <f>VLOOKUP(C58,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -30882,23 +30878,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C59" s="12" t="str">
+      <c r="C59" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C203</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <f>VLOOKUP(B59,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,2,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <f>VLOOKUP(C59,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -30920,23 +30916,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C60" s="12" t="str">
+      <c r="C60" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <f>VLOOKUP(B60,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <f>VLOOKUP(C60,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -30958,23 +30954,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C61" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <f>VLOOKUP(B61,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <f>VLOOKUP(C61,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -30996,23 +30992,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M210</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <f>VLOOKUP(B62,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,2,0)</f>
         <v>1.9</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <f>VLOOKUP(C62,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -31034,23 +31030,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C107</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <f>VLOOKUP(B63,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,2,0)</f>
         <v>-3.6</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <f>VLOOKUP(C63,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31072,23 +31068,23 @@
         <f>course_requisites!B:B</f>
         <v>C330</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C110</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,2,0)</f>
         <v>-4.1</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <f>VLOOKUP(B64,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <f>VLOOKUP(C64,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31110,23 +31106,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C221</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <f>VLOOKUP(B65,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <f>VLOOKUP(C65,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
@@ -31148,23 +31144,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>D221</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <f>VLOOKUP(B66,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,2,0)</f>
         <v>-6.6</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <f>VLOOKUP(C66,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -31186,23 +31182,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M221</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <f>VLOOKUP(B67,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,2,0)</f>
         <v>-2.4</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <f>VLOOKUP(C67,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31224,23 +31220,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C68" s="12" t="str">
+      <c r="C68" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <f>VLOOKUP(B68,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <f>VLOOKUP(C68,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31262,23 +31258,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C69" s="12" t="str">
+      <c r="C69" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S251</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <f>VLOOKUP(B69,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,2,0)</f>
         <v>4.3</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <f>VLOOKUP(C69,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31300,23 +31296,23 @@
         <f>course_requisites!B:B</f>
         <v>C340</v>
       </c>
-      <c r="C70" s="12" t="str">
+      <c r="C70" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>S302</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <f>VLOOKUP(B70,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,2,0)</f>
         <v>6.6</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <f>VLOOKUP(C70,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -31338,23 +31334,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C71" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C210</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <f>VLOOKUP(B71,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,2,0)</f>
         <v>-4.3</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <f>VLOOKUP(C71,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31376,23 +31372,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C72" s="12" t="str">
+      <c r="C72" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>C121</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <f>VLOOKUP(B72,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,2,0)</f>
         <v>-7.1</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <f>VLOOKUP(C72,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31414,23 +31410,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C73" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M220</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <f>VLOOKUP(B73,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <f>VLOOKUP(C73,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -31452,23 +31448,23 @@
         <f>course_requisites!B:B</f>
         <v>C221</v>
       </c>
-      <c r="C74" s="12" t="str">
+      <c r="C74" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,2,0)</f>
         <v>-5.6</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <f>VLOOKUP(B74,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <f>VLOOKUP(C74,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31490,23 +31486,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C75" s="12" t="str">
+      <c r="C75" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M101</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <f>VLOOKUP(B75,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,2,0)</f>
         <v>3.6</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <f>VLOOKUP(C75,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31528,23 +31524,23 @@
         <f>course_requisites!B:B</f>
         <v>M220</v>
       </c>
-      <c r="C76" s="12" t="str">
+      <c r="C76" s="11" t="str">
         <f>course_requisites!C:C</f>
         <v>M200</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <f>VLOOKUP(B76,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,2,0)</f>
         <v>-1.4</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <f>VLOOKUP(C76,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>

--- a/data/dsci_data.xlsx
+++ b/data/dsci_data.xlsx
@@ -627,7 +627,7 @@
   <si>
     <t>&lt;h3&gt;Course Information&lt;/h3&gt;
 &lt;p&gt;The course map presents all DSCI, STAT, MATH, and CPSC courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
-&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, with contributions from &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt;, and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
 &lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
